--- a/Laporan Buku Tamu.xlsx
+++ b/Laporan Buku Tamu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>aplikasi sederhana</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budi Santoso </t>
+  </si>
+  <si>
+    <t>0983091</t>
   </si>
 </sst>
 </file>
@@ -393,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +456,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
